--- a/biology/Médecine/Alcalose_métabolique/Alcalose_métabolique.xlsx
+++ b/biology/Médecine/Alcalose_métabolique/Alcalose_métabolique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Alcalose_m%C3%A9tabolique</t>
+          <t>Alcalose_métabolique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'alcalose métabolique est un trouble de l'équilibre acido-basique défini par une hausse du pH dans le secteur extracellulaire plasmatique (sang), d'origine métabolique.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Alcalose_m%C3%A9tabolique</t>
+          <t>Alcalose_métabolique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Le pH intracellulaire chez l'homme est de 7,2, le pH extracellulaire de 7,4. Ces valeurs sont extrêmement intimement régulées via plusieurs mécanismes fondés sur l'équation suivante :
  H+ + HCO3– → H2CO3 → CO2 + H2O
@@ -537,7 +551,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Alcalose_m%C3%A9tabolique</t>
+          <t>Alcalose_métabolique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,24 +569,18 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>L'alcalose se produit consécutivement à plusieurs anomalies, souvent associées entre elles :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'alcalose se produit consécutivement à plusieurs anomalies, souvent associées entre elles :
 un apport accru de bases, le plus souvent sous la forme de bicarbonate de sodium ou de bicarbonate de calcium,
 une perte d'acides, en général par le rein,
 une perte de chlore, digestive ou rénale,
 une déshydratation extracellulaire, qui entraîne une concentration des bicarbonates,
 une réabsorption accrue de bases par le rein.
 Le rôle du chlore (et de son déficit en particulier) est capital dans la genèse des alcaloses métaboliques : en effet, l'excrétion rénale des bases n'est possible que couplée au chlore. La correction d'un fréquent déficit chloré est indispensable pour rendre aux reins leur capacité à débarrasser le sang de son excès de bases.
-Apport excessif de bases
-Soit par apport de bicarbonate de sodium (par exemple chez l'insuffisant rénal), ou de bicarbonate de calcium (syndrome des « buveurs de lait ».)
-Pertes de chlore
-Pertes digestives (les selles sont très riches en chlore. Une hypokaliémie est souvent associée) : vomissements, aspiration digestive, tumeur villeuse digestive, etc.
-Pertes rénales.
-Autres causes
-Hyperaldostéronismes
-Maladie de Cushing
-Certaines tubulopathies héréditaires rares.</t>
+</t>
         </is>
       </c>
     </row>
@@ -582,7 +590,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Alcalose_m%C3%A9tabolique</t>
+          <t>Alcalose_métabolique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -597,10 +605,124 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Apport excessif de bases</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soit par apport de bicarbonate de sodium (par exemple chez l'insuffisant rénal), ou de bicarbonate de calcium (syndrome des « buveurs de lait ».)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Alcalose_métabolique</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcalose_m%C3%A9tabolique</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pertes de chlore</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Pertes digestives (les selles sont très riches en chlore. Une hypokaliémie est souvent associée) : vomissements, aspiration digestive, tumeur villeuse digestive, etc.
+Pertes rénales.</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Alcalose_métabolique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcalose_m%C3%A9tabolique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Étiologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autres causes</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Hyperaldostéronismes
+Maladie de Cushing
+Certaines tubulopathies héréditaires rares.</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Alcalose_métabolique</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcalose_m%C3%A9tabolique</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Diagnostic</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">Le diagnostic clinique est aspécifique : il associe une tétanie musculaire, des paresthésies (sensations anormales), au maximum des convulsions. La respiration est en général lente (bradypnée) par compensation.
 La certitude diagnostique est apportée par les gaz du sang et l'ionogramme sanguin (voir plus haut).
@@ -608,39 +730,78 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Alcalose_m%C3%A9tabolique</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Alcalose_métabolique</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D9" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Alcalose_m%C3%A9tabolique</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Traitement étiologique
-Il est toujours indispensable, et souvent suffisant à la correction des anomalies métaboliques :
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Traitement étiologique</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Il est toujours indispensable, et souvent suffisant à la correction des anomalies métaboliques :
 arrêt d'une prise excessive de bicarbonates ;
 arrêt ou diminution d'un traitement par diurétiques ;
-lutte contre les vomissements, etc.
-Traitement symptomatique
-Il repose non pas sur une acidification du sang (sauf cas exceptionnels), mais sur la correction des anomalies associées à l'alcalose métabolique, et en particulier le déficit chloré. Ce traitement n'est utile que pour les alcaloses profondes et/ou source d'un retentissement clinique significatif.
+lutte contre les vomissements, etc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Alcalose_métabolique</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Alcalose_m%C3%A9tabolique</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Traitement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Traitement symptomatique</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il repose non pas sur une acidification du sang (sauf cas exceptionnels), mais sur la correction des anomalies associées à l'alcalose métabolique, et en particulier le déficit chloré. Ce traitement n'est utile que pour les alcaloses profondes et/ou source d'un retentissement clinique significatif.
 </t>
         </is>
       </c>
